--- a/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-14.xlsx
+++ b/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-14.xlsx
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>résumé</t>
+          <t>resume; résumé</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
